--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,31 +49,40 @@
     <t>thin</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>probably</t>
   </si>
   <si>
     <t>smaller</t>
@@ -85,148 +94,124 @@
     <t>tiny</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>back</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>box</t>
   </si>
   <si>
     <t>little</t>
@@ -241,30 +226,30 @@
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -301,13 +286,7 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -671,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.7037037037037037</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -890,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>0.6989247311827957</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7419354838709677</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7281553398058253</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.5471698113207547</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7183098591549296</v>
+        <v>0.734375</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.46875</v>
+        <v>0.515625</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <v>0.4057971014492754</v>
@@ -1140,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>0.3434426229508197</v>
@@ -1190,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6428571428571429</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.2740315638450502</v>
+        <v>0.3127690100430416</v>
       </c>
       <c r="L12">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M12">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6418918918918919</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.2510373443983402</v>
+        <v>0.2697095435684647</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>0.2166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>0.1834862385321101</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L16">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>0.1428571428571428</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>0.1328125</v>
@@ -1540,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4909090909090909</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>0.1044176706827309</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4695652173913044</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C20">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>0.08064516129032258</v>
+        <v>0.07099035933391762</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>171</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4330708661417323</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K21">
-        <v>0.0736196319018405</v>
+        <v>0.02401038286826736</v>
       </c>
       <c r="L21">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1057</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4259259259259259</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,31 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22">
-        <v>0.04456824512534819</v>
-      </c>
-      <c r="L22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>343</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4216867469879518</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,31 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23">
-        <v>0.03441558441558441</v>
-      </c>
-      <c r="L23">
-        <v>53</v>
-      </c>
-      <c r="M23">
-        <v>54</v>
-      </c>
-      <c r="N23">
-        <v>0.98</v>
-      </c>
-      <c r="O23">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1487</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4210526315789473</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4126984126984127</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4074074074074074</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3833333333333334</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1912,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3720930232558139</v>
+        <v>0.328125</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1938,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1964,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +1903,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3595505617977528</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1990,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3571428571428572</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2016,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2024,13 +1955,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3469387755102041</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2042,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3366336633663367</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C34">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2068,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.296875</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2094,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>90</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2962962962962963</v>
+        <v>0.265625</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.293103448275862</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2146,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2843601895734597</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2172,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2393162393162393</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2198,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2371134020618557</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="C40">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2224,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.234375</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2250,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2318840579710145</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2276,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>53</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1868131868131868</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2302,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>74</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,13 +2241,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1795252225519288</v>
+        <v>0.185</v>
       </c>
       <c r="C44">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2328,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>553</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1759259259259259</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2354,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2362,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.173469387755102</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2380,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>81</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2388,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1708860759493671</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2406,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2414,13 +2345,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1677215189873418</v>
+        <v>0.1661721068249258</v>
       </c>
       <c r="C48">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2432,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>263</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2440,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1649484536082474</v>
+        <v>0.15</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2458,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1594202898550725</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2484,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>232</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2492,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1464968152866242</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2510,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>134</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2518,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1428571428571428</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2536,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,25 +2475,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1401869158878505</v>
+        <v>0.1239193083573487</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>184</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,7 +2501,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1271186440677966</v>
+        <v>0.1171875</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -2588,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2596,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1255506607929515</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C55">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2614,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>397</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2622,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.125</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2640,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2648,7 +2579,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1142857142857143</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C57">
         <v>16</v>
@@ -2666,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2674,25 +2605,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1041095890410959</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C58">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>327</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2700,25 +2631,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.100864553314121</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C59">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E59">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2726,22 +2657,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09375</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>174</v>
@@ -2752,13 +2683,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08870967741935484</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2770,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>226</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2778,13 +2709,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.08743169398907104</v>
+        <v>0.06197183098591549</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2796,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>167</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2804,25 +2735,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.08239700374531835</v>
+        <v>0.05436573311367381</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>245</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2830,25 +2761,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.07936507936507936</v>
+        <v>0.05324074074074074</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>174</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2856,25 +2787,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06093189964157706</v>
+        <v>0.02528445006321112</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E65">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="F65">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>262</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2882,13 +2813,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05790645879732739</v>
+        <v>0.02442748091603053</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2900,137 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.05352112676056338</v>
-      </c>
-      <c r="C67">
-        <v>19</v>
-      </c>
-      <c r="D67">
-        <v>19</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.05098684210526316</v>
-      </c>
-      <c r="C68">
-        <v>31</v>
-      </c>
-      <c r="D68">
-        <v>31</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="C69">
-        <v>18</v>
-      </c>
-      <c r="D69">
-        <v>20</v>
-      </c>
-      <c r="E69">
-        <v>0.1</v>
-      </c>
-      <c r="F69">
-        <v>0.9</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.02290076335877863</v>
-      </c>
-      <c r="C70">
-        <v>15</v>
-      </c>
-      <c r="D70">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.02151898734177215</v>
-      </c>
-      <c r="C71">
-        <v>17</v>
-      </c>
-      <c r="D71">
-        <v>21</v>
-      </c>
-      <c r="E71">
-        <v>0.19</v>
-      </c>
-      <c r="F71">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>773</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
